--- a/SC7HP75/config.xlsx
+++ b/SC7HP75/config.xlsx
@@ -8,6 +8,28 @@
     <sheet name="adc2ver" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,10 +444,10 @@
         <v>PE2</v>
       </c>
       <c r="C2" t="str">
-        <v>PG_VDD_PHY_B1234</v>
+        <v>NC</v>
       </c>
       <c r="D2" t="str">
-        <v>INPUT</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="3">
@@ -436,13 +458,13 @@
         <v>PE3</v>
       </c>
       <c r="C3" t="str">
-        <v>INT_PMIC_B1234</v>
+        <v>INT_PMIC_B1</v>
       </c>
       <c r="D3" t="str">
         <v>INPUT</v>
       </c>
       <c r="J3" t="str">
-        <v>NRST</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -453,7 +475,7 @@
         <v>PE4</v>
       </c>
       <c r="C4" t="str">
-        <v>PG_PMIC_B1234</v>
+        <v>PG_PMIC_B1</v>
       </c>
       <c r="D4" t="str">
         <v>INPUT</v>
@@ -521,7 +543,7 @@
         <v>PC13</v>
       </c>
       <c r="C8" t="str">
-        <v>DDR_PG_B12</v>
+        <v>DDR_PG_B1</v>
       </c>
       <c r="D8" t="str">
         <v>OUTPUT</v>
@@ -547,7 +569,7 @@
         <v>PC14</v>
       </c>
       <c r="C9" t="str">
-        <v>EN_VQPS18_B12</v>
+        <v>EN_VQPS18_B1</v>
       </c>
       <c r="D9" t="str">
         <v>OUTPUT</v>
@@ -565,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <v>SWDIO</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -654,13 +676,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="str">
-        <v>PC2</v>
+        <v>PC1</v>
       </c>
       <c r="C16" t="str">
-        <v>PCIE_MCU_RST_X</v>
+        <v>INT_PMIC_B3</v>
       </c>
       <c r="D16" t="str">
         <v>INPUT</v>
@@ -668,38 +690,38 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="str">
-        <v>PC3</v>
+        <v>PC2</v>
       </c>
       <c r="C17" t="str">
-        <v>CURRENT_PCIE_3V3</v>
+        <v>PCIE_MCU_RST_X</v>
       </c>
       <c r="D17" t="str">
-        <v>ANALOG</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="str">
-        <v>VSSA</v>
+        <v>PC3</v>
       </c>
       <c r="C18" t="str">
-        <v>GND</v>
+        <v>CURRENT_PCIE_3V3</v>
       </c>
       <c r="D18" t="str">
-        <v>NA</v>
+        <v>ANALOG</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="str">
-        <v>VREF-</v>
+        <v>VSSA</v>
       </c>
       <c r="C19" t="str">
         <v>GND</v>
@@ -710,13 +732,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="str">
-        <v>VREF+</v>
+        <v>VREF-</v>
       </c>
       <c r="C20" t="str">
-        <v>VDDA_MCU</v>
+        <v>GND</v>
       </c>
       <c r="D20" t="str">
         <v>NA</v>
@@ -724,10 +746,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="str">
-        <v>VDDA</v>
+        <v>VREF+</v>
       </c>
       <c r="C21" t="str">
         <v>VDDA_MCU</v>
@@ -738,41 +760,41 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="str">
-        <v>PA0</v>
+        <v>VDDA</v>
       </c>
       <c r="C22" t="str">
-        <v>CURRENT_SYS_12V</v>
+        <v>VDDA_MCU</v>
       </c>
       <c r="D22" t="str">
-        <v>ANALOG</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
-        <v>PA2</v>
+        <v>PA0</v>
       </c>
       <c r="C23" t="str">
-        <v>MCU_UART2_TX</v>
+        <v>NTC_MON</v>
       </c>
       <c r="D23" t="str">
-        <v>AF</v>
+        <v>ANALOG</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="str">
-        <v>PA3</v>
+        <v>PA2</v>
       </c>
       <c r="C24" t="str">
-        <v>MCU_UART2_RX</v>
+        <v>MCU_UART2_TX</v>
       </c>
       <c r="D24" t="str">
         <v>AF</v>
@@ -780,27 +802,27 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="str">
-        <v>VSS_4</v>
+        <v>PA3</v>
       </c>
       <c r="C25" t="str">
-        <v>GND</v>
+        <v>MCU_UART2_RX</v>
       </c>
       <c r="D25" t="str">
-        <v>NA</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="str">
-        <v>VDD_4</v>
+        <v>VSS_4</v>
       </c>
       <c r="C26" t="str">
-        <v>MCU_1V8</v>
+        <v>GND</v>
       </c>
       <c r="D26" t="str">
         <v>NA</v>
@@ -808,93 +830,81 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
-        <v>PB0</v>
+        <v>VDD_4</v>
       </c>
       <c r="C27" t="str">
-        <v>PROD_VER</v>
+        <v>MCU_1V8</v>
       </c>
       <c r="D27" t="str">
-        <v>ANALOG</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B28" t="str">
-        <v>PB1</v>
+        <v>PA4</v>
       </c>
       <c r="C28" t="str">
-        <v>HW_VER</v>
+        <v>EN_VDD_TPU_B2</v>
       </c>
       <c r="D28" t="str">
-        <v>ANALOG</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F28" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G28" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H28" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I28" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B29" t="str">
-        <v>PE13</v>
+        <v>PA5</v>
       </c>
       <c r="C29" t="str">
-        <v>EN_VDD_PHY_B34</v>
+        <v>PG_PMIC_B3</v>
       </c>
       <c r="D29" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F29" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G29" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H29" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I29" t="str">
-        <v>0</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B30" t="str">
-        <v>PE14</v>
+        <v>PA6</v>
       </c>
       <c r="C30" t="str">
-        <v>EN_VDDC_B34</v>
+        <v>PG_VDD_TPU_B3</v>
       </c>
       <c r="D30" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F30" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G30" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H30" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I30" t="str">
-        <v>0</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B31" t="str">
-        <v>PE15</v>
+        <v>PA7</v>
       </c>
       <c r="C31" t="str">
-        <v>EN_VDDIO33_B34</v>
+        <v>EN_VDDC_B2</v>
       </c>
       <c r="D31" t="str">
         <v>OUTPUT</v>
@@ -914,83 +924,101 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B32" t="str">
-        <v>PB10</v>
+        <v>PC5</v>
       </c>
       <c r="C32" t="str">
-        <v>MCU_I2C2_SCL</v>
+        <v>EN_VDDIO33_B2</v>
       </c>
       <c r="D32" t="str">
-        <v>AF</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F32" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G32" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H32" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I32" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B33" t="str">
-        <v>PB11</v>
+        <v>PB0</v>
       </c>
       <c r="C33" t="str">
-        <v>MCU_I2C2_SDA</v>
+        <v>PROD_VER</v>
       </c>
       <c r="D33" t="str">
-        <v>AF</v>
+        <v>ANALOG</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
-        <v>VSS_1</v>
+        <v>PB1</v>
       </c>
       <c r="C34" t="str">
-        <v>GND</v>
+        <v>HW_VER</v>
       </c>
       <c r="D34" t="str">
-        <v>NA</v>
+        <v>ANALOG</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B35" t="str">
-        <v>VDD_2</v>
+        <v>PB2</v>
       </c>
       <c r="C35" t="str">
-        <v>MCU_1V8</v>
+        <v>BOOT</v>
       </c>
       <c r="D35" t="str">
-        <v>NA</v>
+        <v>INPUT</v>
+      </c>
+      <c r="I35" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B36" t="str">
-        <v>PB12</v>
+        <v>PE7</v>
       </c>
       <c r="C36" t="str">
-        <v>EN_VQPS18_B34</v>
+        <v>PG_VDDC_B3</v>
       </c>
       <c r="D36" t="str">
-        <v>NA</v>
+        <v>INPUT</v>
+      </c>
+      <c r="I36" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" t="str">
-        <v>PB13</v>
+        <v>PE14</v>
       </c>
       <c r="C37" t="str">
-        <v>EN_VDDIO33_B12</v>
+        <v>EN_VDDC_B3</v>
       </c>
       <c r="D37" t="str">
         <v>OUTPUT</v>
@@ -1010,13 +1038,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B38" t="str">
-        <v>PB14</v>
+        <v>PE15</v>
       </c>
       <c r="C38" t="str">
-        <v>EN_VDD_TPU_B34</v>
+        <v>EN_VDDIO33_B3</v>
       </c>
       <c r="D38" t="str">
         <v>OUTPUT</v>
@@ -1036,217 +1064,277 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39" t="str">
-        <v>PB15</v>
+        <v>PB10</v>
       </c>
       <c r="C39" t="str">
-        <v>EN_VDD_PHY_B12</v>
+        <v>MCU_I2C2_SCL</v>
       </c>
       <c r="D39" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F39" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G39" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H39" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I39" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" t="str">
-        <v>PD8</v>
+        <v>PB11</v>
       </c>
       <c r="C40" t="str">
-        <v>EN_VDDC_B12</v>
+        <v>MCU_I2C2_SDA</v>
       </c>
       <c r="D40" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F40" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G40" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H40" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I40" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B41" t="str">
-        <v>PD9</v>
+        <v>VSS_1</v>
       </c>
       <c r="C41" t="str">
-        <v>EN_VDD_TPU_B12</v>
+        <v>GND</v>
       </c>
       <c r="D41" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F41" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G41" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H41" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I41" t="str">
-        <v>0</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B42" t="str">
-        <v>PC9</v>
+        <v>VDD_2</v>
       </c>
       <c r="C42" t="str">
-        <v>MCU_I2C3_SDA</v>
+        <v>MCU_1V8</v>
       </c>
       <c r="D42" t="str">
-        <v>AF</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B43" t="str">
-        <v>PA8</v>
+        <v>PB12</v>
       </c>
       <c r="C43" t="str">
-        <v>MCU_I2C3_SCL</v>
+        <v>EN_VQPS18_B3</v>
       </c>
       <c r="D43" t="str">
-        <v>AF</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F43" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G43" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H43" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I43" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B44" t="str">
-        <v>PA9</v>
+        <v>PB13</v>
       </c>
       <c r="C44" t="str">
-        <v>MCU_UART4_TX</v>
+        <v>EN_VDDIO33_B1</v>
       </c>
       <c r="D44" t="str">
-        <v>AF</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F44" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G44" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H44" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I44" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B45" t="str">
-        <v>PA10</v>
+        <v>PB14</v>
       </c>
       <c r="C45" t="str">
-        <v>MCU_UART4_RX</v>
+        <v>EN_VDD_TPU_B3</v>
       </c>
       <c r="D45" t="str">
-        <v>AF</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F45" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G45" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H45" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I45" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B46" t="str">
-        <v>PA13</v>
+        <v>PB15</v>
       </c>
       <c r="C46" t="str">
-        <v>MCU_SWDIO/PWR_DET0</v>
+        <v>EN_VDD_PHY_B1</v>
       </c>
       <c r="D46" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F46" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G46" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H46" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I46" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B47" t="str">
-        <v>NC</v>
+        <v>PD8</v>
       </c>
       <c r="C47" t="str">
-        <v>NC</v>
+        <v>EN_VDDC_B1</v>
       </c>
       <c r="D47" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F47" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G47" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H47" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I47" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B48" t="str">
-        <v>VSS_2</v>
+        <v>PD9</v>
       </c>
       <c r="C48" t="str">
-        <v>GND</v>
+        <v>EN_VDD_TPU_B1</v>
       </c>
       <c r="D48" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F48" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G48" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H48" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I48" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B49" t="str">
-        <v>VDD_2</v>
+        <v>PD11</v>
       </c>
       <c r="C49" t="str">
-        <v>MCU_1V8</v>
+        <v>P08_PG_B2</v>
       </c>
       <c r="D49" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F49" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G49" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H49" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I49" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B50" t="str">
-        <v>PA14</v>
+        <v>PD12</v>
       </c>
       <c r="C50" t="str">
-        <v>MCU_SWDCLK/PWR_DET1</v>
+        <v>TPU_PG_B2</v>
       </c>
       <c r="D50" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F50" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G50" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H50" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I50" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B51" t="str">
-        <v>PC10</v>
+        <v>PD13</v>
       </c>
       <c r="C51" t="str">
-        <v>B4_SYS_RST_N</v>
+        <v>PCIE_PG_B2</v>
       </c>
       <c r="D51" t="str">
         <v>OUTPUT</v>
@@ -1266,13 +1354,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B52" t="str">
-        <v>PC12</v>
+        <v>PD14</v>
       </c>
       <c r="C52" t="str">
-        <v>P08_PG_B34</v>
+        <v>TPUMEM_PG_B2</v>
       </c>
       <c r="D52" t="str">
         <v>OUTPUT</v>
@@ -1292,13 +1380,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B53" t="str">
-        <v>PD0</v>
+        <v>PD15</v>
       </c>
       <c r="C53" t="str">
-        <v>TPU_PG_B34</v>
+        <v>EN_VQPS18_B2</v>
       </c>
       <c r="D53" t="str">
         <v>OUTPUT</v>
@@ -1318,169 +1406,97 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B54" t="str">
-        <v>PD1</v>
+        <v>PC7</v>
       </c>
       <c r="C54" t="str">
-        <v>PCIE_PG_B34</v>
+        <v>B2_GPIO16_M</v>
       </c>
       <c r="D54" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F54" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G54" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H54" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I54" t="str">
-        <v>0</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B55" t="str">
-        <v>PD2</v>
+        <v>PC8</v>
       </c>
       <c r="C55" t="str">
-        <v>TPUMEM_PG_B34</v>
+        <v>B1_GPIO16_M</v>
       </c>
       <c r="D55" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F55" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G55" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H55" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I55" t="str">
-        <v>0</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B56" t="str">
-        <v>PD3</v>
+        <v>PC9</v>
       </c>
       <c r="C56" t="str">
-        <v>B3_SYS_RST_N</v>
+        <v>MCU_I2C3_SDA</v>
       </c>
       <c r="D56" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F56" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G56" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H56" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I56" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B57" t="str">
-        <v>PD4</v>
+        <v>PA8</v>
       </c>
       <c r="C57" t="str">
-        <v>DDR_PG_B34</v>
+        <v>MCU_I2C3_SCL</v>
       </c>
       <c r="D57" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F57" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G57" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H57" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I57" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B58" t="str">
-        <v>PD5</v>
+        <v>PA9</v>
       </c>
       <c r="C58" t="str">
-        <v>TPUMEM_PG_B12</v>
+        <v>MCU_UART4_TX</v>
       </c>
       <c r="D58" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F58" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G58" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H58" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I58" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B59" t="str">
-        <v>PD6</v>
+        <v>PA10</v>
       </c>
       <c r="C59" t="str">
-        <v>PCIE_PG_B12</v>
+        <v>MCU_UART4_RX</v>
       </c>
       <c r="D59" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F59" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G59" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H59" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I59" t="str">
-        <v>0</v>
+        <v>AF</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B60" t="str">
-        <v>PD7</v>
+        <v>PA11</v>
       </c>
       <c r="C60" t="str">
-        <v>TPU_PG_B12</v>
+        <v>DDR_PG_B2</v>
       </c>
       <c r="D60" t="str">
         <v>OUTPUT</v>
@@ -1500,147 +1516,123 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B61" t="str">
-        <v>PB3</v>
+        <v>PA12</v>
       </c>
       <c r="C61" t="str">
-        <v>P08_PG_B12</v>
+        <v>PG_PMIC_B2</v>
       </c>
       <c r="D61" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F61" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G61" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H61" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I61" t="str">
-        <v>0</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B62" t="str">
-        <v>PB4</v>
+        <v>PA13</v>
       </c>
       <c r="C62" t="str">
-        <v>B2_SYS_RST_N</v>
+        <v>MCU_SWDIO/PWR_DET0</v>
       </c>
       <c r="D62" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F62" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G62" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H62" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I62" t="str">
-        <v>0</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B63" t="str">
-        <v>PB5</v>
+        <v>VSS_2</v>
       </c>
       <c r="C63" t="str">
-        <v>PCIE_SYS_RST_N</v>
+        <v>GND</v>
       </c>
       <c r="D63" t="str">
-        <v>OUTPUT</v>
-      </c>
-      <c r="F63" t="str">
-        <v>NO-PULL</v>
-      </c>
-      <c r="G63" t="str">
-        <v>PP</v>
-      </c>
-      <c r="H63" t="str">
-        <v>LOW</v>
-      </c>
-      <c r="I63" t="str">
-        <v>0</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B64" t="str">
-        <v>PB6</v>
+        <v>VDD_2</v>
       </c>
       <c r="C64" t="str">
-        <v>MCU_I2C1_SCL</v>
+        <v>MCU_1V8</v>
       </c>
       <c r="D64" t="str">
-        <v>AF</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B65" t="str">
-        <v>PB7</v>
+        <v>PA14</v>
       </c>
       <c r="C65" t="str">
-        <v>MCU_I2C1_SDA</v>
+        <v>MCU_SWDCLK/PWR_DET1</v>
       </c>
       <c r="D65" t="str">
-        <v>AF</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B66" t="str">
-        <v>BOOT0</v>
+        <v>PA15</v>
       </c>
       <c r="C66" t="str">
-        <v>BOOT0</v>
+        <v>INT_PMIC_B2</v>
       </c>
       <c r="D66" t="str">
-        <v>NA</v>
+        <v>INPUT</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B67" t="str">
-        <v>PB8</v>
+        <v>PC12</v>
       </c>
       <c r="C67" t="str">
-        <v>PG_PCIE_0V84</v>
+        <v>P08_PG_B3</v>
       </c>
       <c r="D67" t="str">
-        <v>INPUT</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F67" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G67" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H67" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I67" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B68" t="str">
-        <v>PB9</v>
+        <v>PD0</v>
       </c>
       <c r="C68" t="str">
-        <v>EN_PCIE_0V8</v>
+        <v>TPU_PG_B3</v>
       </c>
       <c r="D68" t="str">
         <v>OUTPUT</v>
@@ -1660,67 +1652,374 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B69" t="str">
-        <v>PE0</v>
+        <v>PD1</v>
       </c>
       <c r="C69" t="str">
-        <v>PG_VDD_TPU_B1234</v>
+        <v>PCIE_PG_B3</v>
       </c>
       <c r="D69" t="str">
-        <v>INPUT</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F69" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G69" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H69" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I69" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B70" t="str">
-        <v>PE1</v>
+        <v>PD2</v>
       </c>
       <c r="C70" t="str">
-        <v>PG_VDDC_B1234</v>
+        <v>TPUMEM_PG_B3</v>
       </c>
       <c r="D70" t="str">
-        <v>INPUT</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F70" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G70" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H70" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I70" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B71" t="str">
-        <v>VSS_3</v>
+        <v>PD3</v>
       </c>
       <c r="C71" t="str">
-        <v>GND</v>
+        <v>B3_SYS_RST_N</v>
       </c>
       <c r="D71" t="str">
-        <v>NA</v>
+        <v>OUTPUT</v>
+      </c>
+      <c r="F71" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G71" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H71" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I71" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
+        <v>85</v>
+      </c>
+      <c r="B72" t="str">
+        <v>PD4</v>
+      </c>
+      <c r="C72" t="str">
+        <v>DDR_PG_B3</v>
+      </c>
+      <c r="D72" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F72" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G72" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H72" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I72" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>86</v>
+      </c>
+      <c r="B73" t="str">
+        <v>PD5</v>
+      </c>
+      <c r="C73" t="str">
+        <v>TPUMEM_PG_B1</v>
+      </c>
+      <c r="D73" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F73" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G73" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H73" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>87</v>
+      </c>
+      <c r="B74" t="str">
+        <v>PD6</v>
+      </c>
+      <c r="C74" t="str">
+        <v>PCIE_PG_B1</v>
+      </c>
+      <c r="D74" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F74" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G74" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H74" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>88</v>
+      </c>
+      <c r="B75" t="str">
+        <v>PD7</v>
+      </c>
+      <c r="C75" t="str">
+        <v>TPU_PG_B1</v>
+      </c>
+      <c r="D75" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F75" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G75" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H75" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I75" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>89</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PB3</v>
+      </c>
+      <c r="C76" t="str">
+        <v>P08_PG_B1</v>
+      </c>
+      <c r="D76" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F76" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G76" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H76" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I76" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>90</v>
+      </c>
+      <c r="B77" t="str">
+        <v>PB4</v>
+      </c>
+      <c r="C77" t="str">
+        <v>B2_SYS_RST_N</v>
+      </c>
+      <c r="D77" t="str">
+        <v>OUTPUT</v>
+      </c>
+      <c r="F77" t="str">
+        <v>NO-PULL</v>
+      </c>
+      <c r="G77" t="str">
+        <v>PP</v>
+      </c>
+      <c r="H77" t="str">
+        <v>LOW</v>
+      </c>
+      <c r="I77" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>92</v>
+      </c>
+      <c r="B78" t="str">
+        <v>PB6</v>
+      </c>
+      <c r="C78" t="str">
+        <v>MCU_I2C1_SCL</v>
+      </c>
+      <c r="D78" t="str">
+        <v>AF</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>93</v>
+      </c>
+      <c r="B79" t="str">
+        <v>PB7</v>
+      </c>
+      <c r="C79" t="str">
+        <v>MCU_I2C1_SDA</v>
+      </c>
+      <c r="D79" t="str">
+        <v>AF</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>94</v>
+      </c>
+      <c r="B80" t="str">
+        <v>BOOT0</v>
+      </c>
+      <c r="C80" t="str">
+        <v>BOOT0</v>
+      </c>
+      <c r="D80" t="str">
+        <v>INPUT</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>95</v>
+      </c>
+      <c r="B81" t="str">
+        <v>PB8</v>
+      </c>
+      <c r="C81" t="str">
+        <v>PG_VDD_TPU_B2</v>
+      </c>
+      <c r="D81" t="str">
+        <v>INPUT</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>96</v>
+      </c>
+      <c r="B82" t="str">
+        <v>PB9</v>
+      </c>
+      <c r="C82" t="str">
+        <v>PG_VDDC_B2</v>
+      </c>
+      <c r="D82" t="str">
+        <v>INPUT</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>97</v>
+      </c>
+      <c r="B83" t="str">
+        <v>PE0</v>
+      </c>
+      <c r="C83" t="str">
+        <v>PG_VDD_TPU_B1</v>
+      </c>
+      <c r="D83" t="str">
+        <v>INPUT</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>98</v>
+      </c>
+      <c r="B84" t="str">
+        <v>PE1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>PG_VDDC_B1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>INPUT</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>99</v>
+      </c>
+      <c r="B85" t="str">
+        <v>VSS_3</v>
+      </c>
+      <c r="C85" t="str">
+        <v>GND</v>
+      </c>
+      <c r="D85" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
         <v>100</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B86" t="str">
         <v>VDD_3</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C86" t="str">
         <v>MCU_1V8</v>
+      </c>
+      <c r="D86" t="str">
+        <v>NA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J86"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1758,10 +2057,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>EN_VDDC_B12</v>
+        <v>EN_VDDC_B1</v>
       </c>
       <c r="B3" t="str">
-        <v>EN_VDDC_B12</v>
+        <v>EN_VDDC_B1</v>
       </c>
       <c r="C3" t="str">
         <v>ENABLE</v>
@@ -1772,52 +2071,52 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>EN_VDDC_B34</v>
+        <v>EN_VDDC_B2</v>
       </c>
       <c r="B4" t="str">
-        <v>EN_VDDC_B34</v>
+        <v>EN_VDDC_B2</v>
       </c>
       <c r="C4" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D4" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>EN_VDDIO33_B12</v>
+        <v>EN_VDDC_B3</v>
       </c>
       <c r="B5" t="str">
-        <v>EN_VDDIO33_B12</v>
+        <v>EN_VDDC_B3</v>
       </c>
       <c r="C5" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>EN_VDDIO33_B34</v>
+        <v>EN_VDDIO33_B1</v>
       </c>
       <c r="B6" t="str">
-        <v>EN_VDDIO33_B34</v>
+        <v>EN_VDDIO33_B1</v>
       </c>
       <c r="C6" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D6" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>EN_VDD_PHY_B12</v>
+        <v>EN_VDDIO33_B2</v>
       </c>
       <c r="B7" t="str">
-        <v>EN_VDD_PHY_B12</v>
+        <v>EN_VDDIO33_B2</v>
       </c>
       <c r="C7" t="str">
         <v>ENABLE</v>
@@ -1828,10 +2127,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>EN_VDD_PHY_B34</v>
+        <v>EN_VDDIO33_B3</v>
       </c>
       <c r="B8" t="str">
-        <v>EN_VDD_PHY_B34</v>
+        <v>EN_VDDIO33_B3</v>
       </c>
       <c r="C8" t="str">
         <v>ENABLE</v>
@@ -1842,38 +2141,38 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>P08_PG_B12</v>
+        <v>PMIC_OUTD</v>
       </c>
       <c r="B9" t="str">
-        <v>P08_PG_B12</v>
+        <v>PMIC_OUTD</v>
       </c>
       <c r="C9" t="str">
-        <v>ENABLE</v>
+        <v>FUNCTION</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>P08_PG_B34</v>
+        <v>P08_PG_B1</v>
       </c>
       <c r="B10" t="str">
-        <v>P08_PG_B34</v>
+        <v>P08_PG_B1</v>
       </c>
       <c r="C10" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D10" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PCIE_PG_B12</v>
+        <v>P08_PG_B2</v>
       </c>
       <c r="B11" t="str">
-        <v>PCIE_PG_B12</v>
+        <v>P08_PG_B1</v>
       </c>
       <c r="C11" t="str">
         <v>ENABLE</v>
@@ -1884,24 +2183,24 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>PCIE_PG_B34</v>
+        <v>P08_PG_B3</v>
       </c>
       <c r="B12" t="str">
-        <v>PCIE_PG_B34</v>
+        <v>P08_PG_B3</v>
       </c>
       <c r="C12" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D12" t="str">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>EN_VDD_TPU_B12</v>
+        <v>PCIE_PG_B1</v>
       </c>
       <c r="B13" t="str">
-        <v>EN_VDD_TPU_B12</v>
+        <v>PCIE_PG_B1</v>
       </c>
       <c r="C13" t="str">
         <v>ENABLE</v>
@@ -1912,80 +2211,80 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>EN_VDD_TPU_B34</v>
+        <v>PCIE_PG_B2</v>
       </c>
       <c r="B14" t="str">
-        <v>EN_VDD_TPU_B34</v>
+        <v>PCIE_PG_B2</v>
       </c>
       <c r="C14" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D14" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>TPU_PG_B12</v>
+        <v>PCIE_PG_B3</v>
       </c>
       <c r="B15" t="str">
-        <v>TPU_PG_B12</v>
+        <v>PCIE_PG_B3</v>
       </c>
       <c r="C15" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>TPU_PG_B34</v>
+        <v>EN_VDD_TPU_B1</v>
       </c>
       <c r="B16" t="str">
-        <v>TPU_PG_B34</v>
+        <v>EN_VDD_TPU_B1</v>
       </c>
       <c r="C16" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D16" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>PMIC_OUTC_OUTD</v>
+        <v>EN_VDD_TPU_B2</v>
       </c>
       <c r="B17" t="str">
-        <v>PMIC_OUTC_OUTD</v>
+        <v>EN_VDD_TPU_B2</v>
       </c>
       <c r="C17" t="str">
-        <v>FUNCTION</v>
+        <v>ENABLE</v>
       </c>
       <c r="D17" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>PMIC_OUTB</v>
+        <v>EN_VDD_TPU_B3</v>
       </c>
       <c r="B18" t="str">
-        <v>PMIC_OUTB</v>
+        <v>EN_VDD_TPU_B3</v>
       </c>
       <c r="C18" t="str">
-        <v>FUNCTION</v>
+        <v>ENABLE</v>
       </c>
       <c r="D18" t="str">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TPUMEM_PG_B12</v>
+        <v>TPU_PG_B1</v>
       </c>
       <c r="B19" t="str">
-        <v>TPUMEM_PG_B12</v>
+        <v>TPU_PG_B1</v>
       </c>
       <c r="C19" t="str">
         <v>ENABLE</v>
@@ -1996,80 +2295,80 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>TPUMEM_PG_B34</v>
+        <v>TPU_PG_B2</v>
       </c>
       <c r="B20" t="str">
-        <v>TPUMEM_PG_B34</v>
+        <v>TPU_PG_B2</v>
       </c>
       <c r="C20" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D20" t="str">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>EN_VQPS18_B12</v>
+        <v>TPU_PG_B3</v>
       </c>
       <c r="B21" t="str">
-        <v>EN_VQPS18_B12</v>
+        <v>TPU_PG_B3</v>
       </c>
       <c r="C21" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D21" t="str">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>EN_VQPS18_B34</v>
+        <v>PMIC_OUTC</v>
       </c>
       <c r="B22" t="str">
-        <v>EN_VQPS18_B34</v>
+        <v>PMIC_OUTC</v>
       </c>
       <c r="C22" t="str">
-        <v>ENABLE</v>
+        <v>FUNCTION</v>
       </c>
       <c r="D22" t="str">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>CHIP_ASSERT_N</v>
+        <v>PMIC_OUTB</v>
       </c>
       <c r="B23" t="str">
-        <v>CHIP_ASSERT_N</v>
+        <v>PMIC_OUTB</v>
       </c>
       <c r="C23" t="str">
         <v>FUNCTION</v>
       </c>
       <c r="D23" t="str">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>CHIP_DEASSERT_N</v>
+        <v>TPUMEM_PG_B1</v>
       </c>
       <c r="B24" t="str">
-        <v>CHIP_DEASSERT_N</v>
+        <v>TPUMEM_PG_B1</v>
       </c>
       <c r="C24" t="str">
-        <v>FUNCTION</v>
+        <v>ENABLE</v>
       </c>
       <c r="D24" t="str">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>DDR_PG_B12</v>
+        <v>TPUMEM_PG_B2</v>
       </c>
       <c r="B25" t="str">
-        <v>DDR_PG_B12</v>
+        <v>TPUMEM_PG_B2</v>
       </c>
       <c r="C25" t="str">
         <v>ENABLE</v>
@@ -2080,21 +2379,133 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>DDR_PG_B34</v>
+        <v>TPUMEM_PG_B3</v>
       </c>
       <c r="B26" t="str">
-        <v>DDR_PG_B34</v>
+        <v>TPUMEM_PG_B3</v>
       </c>
       <c r="C26" t="str">
         <v>ENABLE</v>
       </c>
       <c r="D26" t="str">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>EN_VQPS18_B1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>EN_VQPS18_B1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>EN_VQPS18_B2</v>
+      </c>
+      <c r="B28" t="str">
+        <v>EN_VQPS18_B2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>EN_VQPS18_B3</v>
+      </c>
+      <c r="B29" t="str">
+        <v>EN_VQPS18_B3</v>
+      </c>
+      <c r="C29" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>CHIP_ASSERT_N</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CHIP_ASSERT_N</v>
+      </c>
+      <c r="C30" t="str">
+        <v>FUNCTION</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>CHIP_DEASSERT_N</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CHIP_DEASSERT_N</v>
+      </c>
+      <c r="C31" t="str">
+        <v>FUNCTION</v>
+      </c>
+      <c r="D31" t="str">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>DDR_PG_B1</v>
+      </c>
+      <c r="B32" t="str">
+        <v>DDR_PG_B1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>DDR_PG_B2</v>
+      </c>
+      <c r="B33" t="str">
+        <v>DDR_PG_B2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>DDR_PG_B3</v>
+      </c>
+      <c r="B34" t="str">
+        <v>DDR_PG_B3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>ENABLE</v>
+      </c>
+      <c r="D34" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E34"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/SC7HP75/config.xlsx
+++ b/SC7HP75/config.xlsx
@@ -2172,7 +2172,7 @@
         <v>P08_PG_B2</v>
       </c>
       <c r="B11" t="str">
-        <v>P08_PG_B1</v>
+        <v>P08_PG_B2</v>
       </c>
       <c r="C11" t="str">
         <v>ENABLE</v>
